--- a/Assets/JoyconFrameWork/5_PopupUIManager/Table/PopupUITable.xlsx
+++ b/Assets/JoyconFrameWork/5_PopupUIManager/Table/PopupUITable.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PopupUI/TestPopup/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TestPopupUI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,6 +50,10 @@
   </si>
   <si>
     <t>테스트 팝업2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup_ui/testpopup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
